--- a/biology/Médecine/Ménécrate_de_Syracuse/Ménécrate_de_Syracuse.xlsx
+++ b/biology/Médecine/Ménécrate_de_Syracuse/Ménécrate_de_Syracuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9n%C3%A9crate_de_Syracuse</t>
+          <t>Ménécrate_de_Syracuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ménécrate est un médecin grec de Syracuse, qui vivait dans le IVe siècle avant J.-C. 
 Il devint célèbre par son habileté, mais surtout par une vanité qui passa en proverbe. Il écrivait à Philippe, roi de Macédoine : « Ménécrate-Jupiter à Philippe, salut. » Philippe lui répondit : « Philippe à Ménécrate, santé et bon sens. »
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9n%C3%A9crate_de_Syracuse</t>
+          <t>Ménécrate_de_Syracuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Ménécrate de Syracuse », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
